--- a/テスト仕様書/中級実践課題.xlsx
+++ b/テスト仕様書/中級実践課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sota.akahane\intellij-spring-project\ex-intermediate\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA4360-0756-4250-8D0E-B2225D1F470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B4A57-14A2-4CB9-B6EA-3ED91DA36A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備SQL" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="164">
   <si>
     <t>野球チーム一覧　ブラックボックステスト仕様書</t>
   </si>
@@ -70,9 +70,6 @@
   <si>
     <t>・チーム一覧が表示されること
 ・チームの発足日の昇順に並んでいること</t>
-  </si>
-  <si>
-    <t>チーム詳細画面が表示されていること</t>
   </si>
   <si>
     <t>チーム詳細画面を表示する</t>
@@ -86,6 +83,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「読売ジャイアンツ」</t>
     </r>
@@ -94,6 +92,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -107,6 +106,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「阪神タイガース」</t>
     </r>
@@ -115,6 +115,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -125,6 +126,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「中日ドラゴンズ」</t>
     </r>
@@ -133,6 +135,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -143,6 +146,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「横浜DeNAベイスターズ」</t>
     </r>
@@ -151,6 +155,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -161,6 +166,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「広島東洋カープ」</t>
     </r>
@@ -169,6 +175,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -179,6 +186,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「東京ヤクルトスワローズ」</t>
     </r>
@@ -187,6 +195,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>のリンクをクリックする</t>
     </r>
@@ -235,6 +244,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>「ホテル検索デシジョンテーブル」の</t>
     </r>
@@ -243,6 +253,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TC1</t>
     </r>
@@ -251,9 +262,40 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>の入力を実施し，「検索」をクリックする</t>
     </r>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>期待される結果</t>
+  </si>
+  <si>
+    <t>不正な値です</t>
+  </si>
+  <si>
+    <t>画面遷移しない</t>
+  </si>
+  <si>
+    <t>検索結果画面に遷移する</t>
+  </si>
+  <si>
+    <t>衣類検索　ブラックボックステスト仕様書</t>
+  </si>
+  <si>
+    <t>衣類検索デシジョンテーブル</t>
+  </si>
+  <si>
+    <t>衣類を検索する</t>
   </si>
   <si>
     <r>
@@ -261,6 +303,36 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>・「ホテル検索デシジョンテーブル」の</t>
     </r>
@@ -269,6 +341,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TC1</t>
     </r>
@@ -277,31 +350,19 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>の期待される結果になっていること
-・パターン２の場合は全件表示されていること</t>
+      <t>の期待される結果になっていること</t>
     </r>
   </si>
   <si>
-    <t>値段の入力（正常系：２パターン実施）</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>数値以外の入力（異常系）</t>
-  </si>
-  <si>
-    <t>大きすぎる値段の入力（異常系）</t>
-  </si>
-  <si>
-    <t>期待される結果</t>
+    <t>性別を選択する（正常系）</t>
+  </si>
+  <si>
+    <t>色を選択する（正常系）</t>
+  </si>
+  <si>
+    <t>性別を選択してください</t>
   </si>
   <si>
     <r>
@@ -309,14 +370,45 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
+      <t>「衣類検索デシジョンテーブル」の</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>・「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TC2</t>
     </r>
@@ -325,9 +417,13 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
+      <t>の期待される結果になっていること</t>
     </r>
+  </si>
+  <si>
+    <t>色を選択してください</t>
   </si>
   <si>
     <r>
@@ -335,41 +431,28 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
+      <t>「衣類検索デシジョンテーブル」の</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>TC2</t>
+      <t>TC1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>の期待される結果になっていること</t>
+      <t>の入力を実施し，「検索」をクリックする</t>
     </r>
-  </si>
-  <si>
-    <t>数値を入力してください</t>
-  </si>
-  <si>
-    <t>不正な値です</t>
-  </si>
-  <si>
-    <t>画面遷移しない</t>
-  </si>
-  <si>
-    <t>検索結果画面に遷移する</t>
-  </si>
-  <si>
-    <t>入力系画面
-（異常系）</t>
   </si>
   <si>
     <r>
@@ -377,14 +460,16 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
+      <t>・「ホテル検索デシジョンテーブル」の</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TC3</t>
     </r>
@@ -393,8 +478,9 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
+      <t>の期待される結果になっていること</t>
     </r>
   </si>
   <si>
@@ -403,40 +489,28 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
+      <t>「衣類検索デシジョンテーブル」の</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>TC3</t>
+      <t>TC1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>の期待される結果になっていること</t>
+      <t>の入力を実施し，「検索」をクリックする</t>
     </r>
-  </si>
-  <si>
-    <t>具体的入力値</t>
-  </si>
-  <si>
-    <t>入力値</t>
-  </si>
-  <si>
-    <t>値段の入力（正常系：パターン１）</t>
-  </si>
-  <si>
-    <t>値段の入力（正常系：パターン２）</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <r>
@@ -444,14 +518,16 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
+      <t>・「ホテル検索デシジョンテーブル」の</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TC4</t>
     </r>
@@ -460,261 +536,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <t>衣類検索　ブラックボックステスト仕様書</t>
-  </si>
-  <si>
-    <t>衣類検索デシジョンテーブル</t>
-  </si>
-  <si>
-    <t>衣類を検索する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <t>性別を選択する（正常系）</t>
-  </si>
-  <si>
-    <t>色を選択する（正常系）</t>
-  </si>
-  <si>
-    <t>性別を選択してください</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <t>色を選択してください</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TC4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>の期待される結果になっていること</t>
     </r>
@@ -925,7 +747,7 @@
     <rPh sb="8" eb="10">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -948,7 +770,7 @@
       </rPr>
       <t>ボタンをクリックする</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -987,7 +809,7 @@
     <rPh sb="68" eb="70">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チームの詳細（球団名、本拠地、発足日、歴史）が表示されること</t>
@@ -1003,7 +825,406 @@
     <rPh sb="19" eb="21">
       <t>レキシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チーム詳細画面が表示されていること</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・検索画面が表示されていること
+・事前準備SQLが実行されていること</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>・「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること
+・全件表示されていること</t>
+    </r>
+    <rPh sb="39" eb="43">
+      <t>ゼンケンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「ホテル検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること
+・パターン２の場合は全件表示されていること</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文字列の入力</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格を入力しない</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：4999）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：5000）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：9999）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：10000）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：9999999）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：10000000）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：0）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の入力（境界値：-1）</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>検索結果が表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その価格以下のホテルは存在しません</t>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホテルローズガーデン新宿</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>横浜ベイホテル東急</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコハマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>渋谷エクセルホテル東急</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>東京ベイ舞浜ホテル</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイハマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パレスホテル東京</t>
+    <rPh sb="6" eb="8">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1013,7 +1234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1035,16 +1256,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1081,8 +1292,71 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,8 +1375,20 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1162,11 +1448,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1184,30 +1522,92 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1433,501 +1833,501 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="9" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="9" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="9" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="9" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="9" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="9" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="9" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1939,8 +2339,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E23"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1952,34 +2352,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="13.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="30">
         <v>45801</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="2" t="s">
@@ -2008,484 +2408,484 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.2">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.2">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="D14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.2">
+      <c r="A19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="10" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.2">
+      <c r="A24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="D24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2">
+      <c r="A29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.2">
-      <c r="A24" s="10" t="s">
+      <c r="C29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.2">
+      <c r="A34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.2">
-      <c r="A29" s="10" t="s">
+      <c r="C34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="D34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.2">
+      <c r="A39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.2">
-      <c r="A34" s="10" t="s">
+      <c r="C39" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="D39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="E39" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="1"/>
@@ -12025,11 +12425,6 @@
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
     <mergeCell ref="G34:G38"/>
     <mergeCell ref="H34:H38"/>
     <mergeCell ref="A29:A33"/>
@@ -12041,6 +12436,11 @@
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="F29:F33"/>
     <mergeCell ref="G29:G33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G8"/>
@@ -12077,7 +12477,7 @@
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="E39:E43"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12087,81 +12487,103 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
     <col min="10" max="10" width="34.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="13" width="9.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.2">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+    <row r="1" spans="1:20" ht="13.2">
+      <c r="A1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="27"/>
+      <c r="J1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="13.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" ht="17.399999999999999" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="30">
         <v>45801</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="27"/>
+      <c r="J2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="13.2">
+      <c r="O2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.399999999999999" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -12186,419 +12608,951 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="L4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.399999999999999">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="J5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.399999999999999">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17.399999999999999">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.2" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="J8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="J9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.399999999999999">
+      <c r="A10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.399999999999999">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="J11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.399999999999999">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="J12" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.8" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.8" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="J16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="13.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" ht="13.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.2">
-      <c r="A9" s="10" t="s">
+      <c r="L16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17.399999999999999">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="J17" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="21.6" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="J18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="J20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="J21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="J10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="13.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.2">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="J14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="14">
-        <v>5000</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="14">
-        <v>1000000000</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.2">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.2">
+      <c r="C22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="J23" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1">
+      <c r="J28" s="8"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="13.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12608,194 +13562,115 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="13.2">
+    <row r="30" spans="1:20" ht="13.2" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="13.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.2">
+    <row r="31" spans="1:20" ht="13.2" customHeight="1">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:20" ht="13.2" customHeight="1">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.2" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="13.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.2">
+    <row r="36" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.2" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="13.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="13.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+    <row r="41" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.2" customHeight="1">
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C44" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="K8:N8"/>
+  <mergeCells count="39">
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12807,7 +13682,9 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -12819,58 +13696,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.2">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="13.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="30">
         <v>45801</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -12900,7 +13777,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -12909,234 +13786,234 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="13.2">
-      <c r="A4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="J4" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="13.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="J7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="13.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="13.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="13.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="13.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="J8" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="13.2">
-      <c r="A9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="13.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
       <c r="J10" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="13.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="J11" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="13.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" ht="13.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -13145,24 +14022,24 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="13.2">
-      <c r="A14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="J14" s="8"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -13170,14 +14047,14 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="13.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
       <c r="J15" s="8"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -13185,14 +14062,14 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="13.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
       <c r="J16" s="8"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -13200,14 +14077,14 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="13.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
       <c r="J17" s="8"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -13215,14 +14092,14 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="13.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
       <c r="J18" s="8"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -13230,68 +14107,67 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="13.2">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G8"/>
@@ -13305,32 +14181,33 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="H4:H8"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D4:D8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/テスト仕様書/中級実践課題.xlsx
+++ b/テスト仕様書/中級実践課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sota.akahane\intellij-spring-project\ex-intermediate\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B4A57-14A2-4CB9-B6EA-3ED91DA36A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F873DE7-7243-46FE-B7AC-2F1773DE1F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備SQL" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="174">
   <si>
     <t>野球チーム一覧　ブラックボックステスト仕様書</t>
   </si>
@@ -233,10 +233,6 @@
   <si>
     <t>入力系画面
 （正常系）</t>
-  </si>
-  <si>
-    <t>・検索画面が表示されていること
-・DBにデータが存在すること</t>
   </si>
   <si>
     <r>
@@ -283,12 +279,6 @@
     <t>不正な値です</t>
   </si>
   <si>
-    <t>画面遷移しない</t>
-  </si>
-  <si>
-    <t>検索結果画面に遷移する</t>
-  </si>
-  <si>
     <t>衣類検索　ブラックボックステスト仕様書</t>
   </si>
   <si>
@@ -298,248 +288,10 @@
     <t>衣類を検索する</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <t>性別を選択する（正常系）</t>
-  </si>
-  <si>
-    <t>色を選択する（正常系）</t>
-  </si>
-  <si>
     <t>性別を選択してください</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
     <t>色を選択してください</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「衣類検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の入力を実施し，「検索」をクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>・「ホテル検索デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS teams CASCADE;</t>
@@ -747,7 +499,7 @@
     <rPh sb="8" eb="10">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -770,7 +522,7 @@
       </rPr>
       <t>ボタンをクリックする</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -809,7 +561,7 @@
     <rPh sb="68" eb="70">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>チームの詳細（球団名、本拠地、発足日、歴史）が表示されること</t>
@@ -825,16 +577,16 @@
     <rPh sb="19" eb="21">
       <t>レキシ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>チーム詳細画面が表示されていること</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・検索画面が表示されていること
 ・事前準備SQLが実行されていること</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -866,7 +618,7 @@
       </rPr>
       <t>の入力を実施し，「検索」をクリックする</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -896,7 +648,7 @@
       </rPr>
       <t>の期待される結果になっていること</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -926,7 +678,7 @@
       </rPr>
       <t>の期待される結果になっていること</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -958,7 +710,7 @@
       </rPr>
       <t>の入力を実施し，「検索」をクリックする</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -990,7 +742,7 @@
       </rPr>
       <t>の入力を実施し，「検索」をクリックする</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1024,7 +776,7 @@
     <rPh sb="39" eb="43">
       <t>ゼンケンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1057,22 +809,22 @@
       <t>の期待される結果になっていること
 ・パターン２の場合は全件表示されていること</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TC5</t>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>文字列の入力</t>
@@ -1082,7 +834,7 @@
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格を入力しない</t>
@@ -1092,63 +844,63 @@
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：4999）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：5000）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：9999）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：10000）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：9999999）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：10000000）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：0）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>価格の入力（境界値：-1）</t>
     <rPh sb="6" eb="9">
       <t>キョウカイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TC6</t>
@@ -1170,7 +922,7 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その価格以下のホテルは存在しません</t>
@@ -1183,11 +935,11 @@
     <rPh sb="11" eb="13">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ホテルローズガーデン新宿</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>横浜ベイホテル東急</t>
@@ -1197,7 +949,7 @@
     <rPh sb="7" eb="9">
       <t>トウキュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>渋谷エクセルホテル東急</t>
@@ -1207,7 +959,7 @@
     <rPh sb="9" eb="11">
       <t>トウキュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>東京ベイ舞浜ホテル</t>
@@ -1217,14 +969,567 @@
     <rPh sb="4" eb="6">
       <t>マイハマ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パレスホテル東京</t>
     <rPh sb="6" eb="8">
       <t>トウキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・検索画面が表示されていること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・事前準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が実行されていること</t>
+    </r>
+    <rPh sb="17" eb="21">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>・URL「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8080/ex-intermediate/ex03/search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>」をブラウザのアドレス欄に入力し、「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>・URL「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8080/ex-intermediate/ex03/search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>」をブラウザのアドレス欄に入力し、「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC2の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>・URL「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8080/ex-intermediate/ex03/search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>」をブラウザのアドレス欄に入力し、「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC3の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>・URL「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8080/ex-intermediate/ex03/search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>」をブラウザのアドレス欄に入力し、「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC4の入力を実施し，「検索」をクリックする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「衣類検索デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：ジャケット
+・サイズ：S
+・価格：10000</t>
+    <rPh sb="20" eb="22">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：パンツ
+・サイズ：M
+・価格：20000</t>
+    <rPh sb="18" eb="20">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：Tシャツ
+・サイズ：M
+・価格：5000</t>
+    <rPh sb="19" eb="21">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：帽子
+・サイズ：S
+・価格：10000</t>
+    <rPh sb="6" eb="8">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：ジャケット
+・サイズ：L
+・価格：15000</t>
+    <rPh sb="20" eb="22">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：ワイシャツ
+・サイズ：M
+・価格：3500</t>
+    <rPh sb="20" eb="22">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンル：スーツ
+・サイズ：L
+・価格：8000</t>
+    <rPh sb="18" eb="20">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>性別を選択する（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Man</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>色を選択する（赤）</t>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>性別を選択する（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>woman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>色を選択する（青）</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>色を選択する（黄）</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>該当する衣類は存在しません</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下略</t>
+    <rPh sb="0" eb="3">
+      <t>イカリャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1234,7 +1539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1253,10 +1558,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1355,6 +1656,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1388,64 +1704,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1504,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1512,102 +1776,122 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1832,502 +2116,502 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="9" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="9" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="9" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="9" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="9" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="9" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2339,7 +2623,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
@@ -2352,34 +2636,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="13.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="25">
         <v>45801</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="2" t="s">
@@ -2408,484 +2692,484 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="C9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="13.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="13.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="13.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" ht="13.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="1"/>
@@ -12409,6 +12693,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="A19:A23"/>
@@ -12425,59 +12760,8 @@
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12489,7 +12773,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -12506,81 +12790,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="23"/>
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="25">
         <v>45801</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="23"/>
+      <c r="J2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>156</v>
+      <c r="R2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.399999999999999" customHeight="1">
@@ -12608,949 +12892,949 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="J4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.399999999999999">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.399999999999999">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="J6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17.399999999999999">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="J7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.2" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="J8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.399999999999999">
+      <c r="A10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.399999999999999">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="J11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.399999999999999">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="K12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="J13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.8" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.8" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="J15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="J16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17.399999999999999">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="21.6" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="J18" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="17.399999999999999">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="J5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="17.399999999999999">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="18" t="s">
+      <c r="M18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="J19" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17.399999999999999">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="J7" s="18" t="s">
+      <c r="K19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="J20" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="19.2" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="J8" s="18" t="s">
+      <c r="K20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.600000000000001" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="J9" s="18" t="s">
+      <c r="K21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="J22" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.399999999999999">
-      <c r="A10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="J10" s="18" t="s">
+      <c r="K22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="J23" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.399999999999999">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="J11" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.399999999999999">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="J12" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.8" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-    </row>
-    <row r="15" spans="1:20" ht="19.8" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="J16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="17.399999999999999">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="J17" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="21.6" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="J18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="J19" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="J20" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="J21" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="J22" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>141</v>
+      <c r="K23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
-      <c r="J28" s="8"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="13.2">
       <c r="A29" s="1"/>
@@ -13565,7 +13849,7 @@
     <row r="30" spans="1:20" ht="13.2" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -13573,21 +13857,21 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="13.2" customHeight="1">
-      <c r="C31" s="11"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="13.2" customHeight="1">
-      <c r="C32" s="11"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C33" s="11"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C34" s="11"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -13595,21 +13879,21 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C36" s="11"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C37" s="11"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C38" s="11"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C39" s="11"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="10"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -13617,19 +13901,42 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C41" s="11"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C42" s="11"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" customHeight="1">
-      <c r="C43" s="11"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="C44" s="11"/>
+      <c r="C44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H21"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="K15:T15"/>
@@ -13646,31 +13953,8 @@
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13680,78 +13964,88 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.2">
-      <c r="A1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+    <row r="1" spans="1:17" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="J1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="39" t="s">
+      <c r="H1" s="23"/>
+      <c r="J1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="13.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="25">
         <v>45801</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="23"/>
+      <c r="J2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="13.2">
+      <c r="O2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.8" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -13776,422 +14070,790 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.2">
-      <c r="A4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="C4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="J4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="J5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22.2" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="22.2" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="J8" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="26.4" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="23.4" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="J10" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="J11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="13.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="J5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="M11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="13.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="13.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="J7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="13.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="N12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="L13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="13.2">
-      <c r="A9" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="M14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="47.4" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30.6" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:17" ht="37.200000000000003" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="37.799999999999997" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:17" ht="41.4" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="J9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="J11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.2">
-      <c r="A14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.2">
-      <c r="A19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="C19" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="J19" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30.6" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="1:17" ht="33" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="J21" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="35.4" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="1:17" ht="28.2" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="36" customHeight="1">
+      <c r="A24" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:17" ht="31.8" customHeight="1">
+      <c r="J25" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="31.2" customHeight="1">
+      <c r="J26" s="46"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:17" ht="46.2" customHeight="1">
+      <c r="J27" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="J28" s="46"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
+  <mergeCells count="95">
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
@@ -14206,8 +14868,29 @@
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="H4:H8"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>